--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1962170.553332074</v>
+        <v>1959918.473620867</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +674,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292598</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>24.14763241892681</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>78.96122915360921</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>40.04537273892246</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>125.8006610335169</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>83.41943806107047</v>
+        <v>376.227471406718</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,22 +1054,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>71.67037196991615</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>36.69369469525622</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>301.9029411358577</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>78.75193987460403</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>71.67037196991603</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>156.0100170058541</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>117.8112368377027</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>158.8230507160376</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,7 +1585,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>77.73359659137407</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,13 +1819,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>228.9553704673005</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>126.9263824507425</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>181.985564370803</v>
       </c>
       <c r="Y22" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541125</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417106</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2713,16 +2713,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>239.4844875583155</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518785</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>41.33703994142957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>42.71572132710787</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>124.9362388746444</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3664,10 +3664,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>18.70843787977262</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>176.2740711281114</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>162.3413016667496</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2047.583838282732</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4343,10 +4343,10 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052367</v>
@@ -4370,10 +4370,10 @@
         <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2047.583838282732</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y2" t="n">
-        <v>2047.583838282732</v>
+        <v>1618.75081059268</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218339</v>
@@ -4425,31 +4425,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
         <v>1109.759191501176</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>604.8580214762837</v>
+        <v>530.5487792519424</v>
       </c>
       <c r="C4" t="n">
-        <v>604.8580214762837</v>
+        <v>530.5487792519424</v>
       </c>
       <c r="D4" t="n">
-        <v>604.8580214762837</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E4" t="n">
-        <v>456.9449278938906</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218339</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1886.844676635035</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1886.844676635035</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1886.844676635035</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U4" t="n">
-        <v>1597.741809760679</v>
+        <v>1356.67533979849</v>
       </c>
       <c r="V4" t="n">
-        <v>1343.057321554792</v>
+        <v>1229.60396501716</v>
       </c>
       <c r="W4" t="n">
-        <v>1053.640151517831</v>
+        <v>940.1867949801995</v>
       </c>
       <c r="X4" t="n">
-        <v>825.6506006198139</v>
+        <v>712.1972440821821</v>
       </c>
       <c r="Y4" t="n">
-        <v>604.8580214762837</v>
+        <v>712.1972440821821</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1685.375546116516</v>
+        <v>1935.366530930991</v>
       </c>
       <c r="C5" t="n">
-        <v>1316.413029176105</v>
+        <v>1566.40401399058</v>
       </c>
       <c r="D5" t="n">
-        <v>1316.413029176105</v>
+        <v>1208.138315383829</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528559</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389512</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839476</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
@@ -4580,37 +4580,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794323</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450752</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180638</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.975386180638</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="Y5" t="n">
-        <v>2071.975386180638</v>
+        <v>1935.366530930991</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4659,13 +4659,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.3679798527295</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124868</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300937</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218339</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218339</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.6347488791189</v>
@@ -4729,46 +4729,46 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
         <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088492</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1854.900232967364</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1600.215744761477</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W7" t="n">
-        <v>1310.798574724517</v>
+        <v>843.1598980861128</v>
       </c>
       <c r="X7" t="n">
-        <v>1082.809023826499</v>
+        <v>615.1703471880954</v>
       </c>
       <c r="Y7" t="n">
-        <v>862.0164446829692</v>
+        <v>394.3777680445653</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1605.601998493309</v>
+        <v>1582.86133602681</v>
       </c>
       <c r="C8" t="n">
-        <v>1236.639481552897</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D8" t="n">
-        <v>878.3737829461468</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>492.5855303479025</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>485.6400295986991</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,55 +4799,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520486</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794322</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794322</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2755.806928794322</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X8" t="n">
-        <v>2382.341170533242</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y8" t="n">
-        <v>1992.201838557431</v>
+        <v>1887.813801820606</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4896,7 +4896,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738568</v>
+        <v>625.8811108217975</v>
       </c>
       <c r="C10" t="n">
-        <v>583.8261120459499</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336142</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="E10" t="n">
-        <v>285.796379051221</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533107</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218338</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218338</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1679.878215082532</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088492</v>
+        <v>1679.878215082532</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088492</v>
+        <v>1390.775348208175</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882605</v>
+        <v>1136.090860002288</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845644</v>
+        <v>846.6736899653276</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947627</v>
+        <v>846.6736899653276</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040965</v>
+        <v>625.8811108217975</v>
       </c>
     </row>
     <row r="11">
@@ -5018,61 +5018,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>372.4964262156759</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797187</v>
+        <v>867.8220324314346</v>
       </c>
       <c r="M12" t="n">
-        <v>691.1951506745238</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N12" t="n">
-        <v>1318.79311422913</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="O12" t="n">
-        <v>1870.702844468417</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P12" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.1865537761979</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C13" t="n">
-        <v>781.250370848291</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D13" t="n">
-        <v>631.1337314359553</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>483.2206378535622</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F13" t="n">
-        <v>336.3306903556518</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>950.1865537761979</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,61 +5264,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>803.2707707770337</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>634.3345878491268</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038328</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797729</v>
+        <v>826.1405381797761</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1205.711814750804</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>984.9192356072734</v>
       </c>
     </row>
     <row r="17">
@@ -5507,22 +5507,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
@@ -5531,10 +5531,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5741,31 +5741,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5950,10 +5950,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>960.4603932171079</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>739.6678140735778</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561141</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>214.9229991561141</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>710.2486053718727</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="26">
@@ -6212,49 +6212,49 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466572</v>
@@ -6297,22 +6297,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718727</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.557557724331</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.873069518444</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.455899481483</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>963.4663485834661</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>963.4663485834661</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168593</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192412</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111694</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075786</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="30">
@@ -6534,22 +6534,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>184.7035232280593</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797186</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745237</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
         <v>1948.813509611463</v>
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6725,25 +6725,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797699</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="35">
@@ -6917,46 +6917,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7017,25 +7017,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>923.067041434951</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>591.7265122257528</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>443.8134186433597</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>443.8134186433597</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7096,10 +7096,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7135,10 +7135,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7199,25 +7199,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1802.364528928005</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2354.274259167292</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2354.274259167292</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7312,31 +7312,31 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>194.8007783998286</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>194.8007783998286</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>194.8007783998286</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>194.8007783998286</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7400,37 +7400,37 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7491,25 +7491,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>710.2486053718727</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>784.581113480496</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>615.6449305525891</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>465.5282911402534</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>966.2295783107357</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>966.2295783107357</v>
       </c>
     </row>
     <row r="44">
@@ -7643,31 +7643,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>49.43558426092518</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>6.701087576231288</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>70.88187642683829</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>57.22910392194368</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>40.32043864788533</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856704</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>43.72409101823419</v>
       </c>
       <c r="Y22" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>31.13893193492467</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,16 +24601,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22910392194228</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>46.69998683092865</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25072,25 +25072,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>105.8997516911045</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>40.58789941762441</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,10 +25552,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,7 +25564,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>121.5862749664513</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>49.43558426092571</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26029,7 +26029,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>860312.7529397651</v>
+        <v>860312.752939765</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>860312.752939765</v>
+        <v>860312.7529397651</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>860312.752939765</v>
+        <v>860312.7529397651</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>860312.752939765</v>
+        <v>860312.7529397651</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>860312.7529397651</v>
+        <v>860312.7529397649</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>860312.752939765</v>
+        <v>860312.7529397651</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>860312.7529397651</v>
+        <v>860312.752939765</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="C2" t="n">
+        <v>574729.2389049984</v>
+      </c>
+      <c r="D2" t="n">
         <v>574729.2389049985</v>
-      </c>
-      <c r="D2" t="n">
-        <v>574729.2389049986</v>
       </c>
       <c r="E2" t="n">
         <v>565002.6197830047</v>
       </c>
       <c r="F2" t="n">
+        <v>565002.619783005</v>
+      </c>
+      <c r="G2" t="n">
+        <v>565002.6197830047</v>
+      </c>
+      <c r="H2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="J2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="K2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="L2" t="n">
         <v>565002.6197830045</v>
-      </c>
-      <c r="H2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="I2" t="n">
-        <v>565002.6197830043</v>
-      </c>
-      <c r="J2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="K2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="L2" t="n">
-        <v>565002.6197830043</v>
       </c>
       <c r="M2" t="n">
         <v>565002.6197830043</v>
       </c>
       <c r="N2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="O2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.8428831941</v>
+        <v>92793.84288319411</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319416</v>
+        <v>92793.84288319403</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319413</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.8081118427</v>
       </c>
       <c r="F4" t="n">
         <v>13606.80811184275</v>
@@ -26433,31 +26433,31 @@
         <v>13606.80811184274</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184277</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.8081118428</v>
       </c>
       <c r="J4" t="n">
+        <v>13606.80811184278</v>
+      </c>
+      <c r="K4" t="n">
+        <v>13606.80811184282</v>
+      </c>
+      <c r="L4" t="n">
         <v>13606.80811184275</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>13606.80811184275</v>
       </c>
-      <c r="L4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="M4" t="n">
-        <v>13606.80811184277</v>
-      </c>
       <c r="N4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184278</v>
       </c>
       <c r="O4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-954743.2902671812</v>
+        <v>-954743.2902671811</v>
       </c>
       <c r="C6" t="n">
-        <v>374001.4554604111</v>
+        <v>374001.455460411</v>
       </c>
       <c r="D6" t="n">
-        <v>374001.4554604113</v>
+        <v>374001.455460411</v>
       </c>
       <c r="E6" t="n">
-        <v>124860.8200398992</v>
+        <v>124826.0821144639</v>
       </c>
       <c r="F6" t="n">
-        <v>450273.2818472545</v>
+        <v>450238.5439218194</v>
       </c>
       <c r="G6" t="n">
-        <v>450273.2818472547</v>
+        <v>450238.5439218192</v>
       </c>
       <c r="H6" t="n">
-        <v>450273.2818472547</v>
+        <v>450238.543921819</v>
       </c>
       <c r="I6" t="n">
-        <v>450273.2818472544</v>
+        <v>450238.5439218189</v>
       </c>
       <c r="J6" t="n">
-        <v>232742.0794499773</v>
+        <v>232707.3415245416</v>
       </c>
       <c r="K6" t="n">
-        <v>450273.2818472547</v>
+        <v>450238.543921819</v>
       </c>
       <c r="L6" t="n">
-        <v>450273.2818472544</v>
+        <v>450238.543921819</v>
       </c>
       <c r="M6" t="n">
-        <v>365218.2539117424</v>
+        <v>365183.5159863069</v>
       </c>
       <c r="N6" t="n">
-        <v>450273.2818472545</v>
+        <v>450238.543921819</v>
       </c>
       <c r="O6" t="n">
-        <v>450273.2818472545</v>
+        <v>450238.5439218189</v>
       </c>
       <c r="P6" t="n">
-        <v>450273.2818472545</v>
+        <v>450238.543921819</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26790,16 @@
         <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>345.5834682595422</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>307.2767095024444</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>48.88677993112488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27594,7 +27594,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>126.3369822903111</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>298.5109320111913</v>
+        <v>5.702898665543785</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,22 +27774,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983812</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>214.5414662356967</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>249.8293036413348</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>80.83090052762287</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>332.1697857788494</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>94.35543628911219</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>33.75900832558784</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28512,7 +28512,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29934,7 +29934,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,37 +31355,37 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
@@ -31394,7 +31394,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31443,16 +31443,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
         <v>300.7247737883114</v>
@@ -31461,19 +31461,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780294</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002938</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>266.3926848685833</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,13 +32066,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32084,31 +32084,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>687.0167715190033</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>364.3208035245835</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>512.9101366533177</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,16 +32546,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319853</v>
+        <v>687.0167715190038</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32786,37 +32786,37 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>249.1672590991336</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32862,28 +32862,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32892,7 +32892,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32935,37 +32935,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32974,10 +32974,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33023,37 +33023,37 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>610.0546826043653</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>754.0002396832328</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33099,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,37 +33172,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33211,10 +33211,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33263,34 +33263,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>229.6463482471746</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>754.000239683233</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33336,28 +33336,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33366,7 +33366,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,37 +33409,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33448,10 +33448,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33497,37 +33497,37 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33573,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817591</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33685,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33737,34 +33737,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>510.8679233250726</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33971,37 +33971,37 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>303.767000288415</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817591</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34214,31 +34214,31 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>423.9151577118745</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162578</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34445,37 +34445,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>391.6051949514482</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859635</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>128.5512458942243</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35735,19 +35735,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>544.4205270745589</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>224.339029438562</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096334</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191328</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>370.3138922088733</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875408</v>
+        <v>544.4205270745593</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>122.329632432467</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36522,19 +36522,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>471.5003028244911</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>622.6585275998996</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36759,19 +36759,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,31 +36826,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>91.80490927281561</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>622.6585275998997</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36996,19 +36996,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191269</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367786</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>379.5262112417394</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37470,19 +37470,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>163.7852262023935</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37707,19 +37707,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367786</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37859,28 +37859,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>285.3607779320003</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37944,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462705</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>253.050815171574</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38181,19 +38181,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
